--- a/Load/ontology/script/cumulated_detection_template.xlsx
+++ b/Load/ontology/script/cumulated_detection_template.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/Documents/GitHub/ApiCommonData/Load/ontology/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC6C625-0AAB-434C-9740-F958F75FCD86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F7FF1F-3564-AF40-8129-37A59538630D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_detection_template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>variable</t>
   </si>
@@ -50,63 +58,6 @@
   </si>
   <si>
     <t>website parent</t>
-  </si>
-  <si>
-    <t>Bacteria</t>
-  </si>
-  <si>
-    <t>Vibrio</t>
-  </si>
-  <si>
-    <t>Vibrio cholerae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adenovirus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeromonas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancylostoma </t>
-  </si>
-  <si>
-    <t>Virus</t>
-  </si>
-  <si>
-    <t>Eukaryota</t>
-  </si>
-  <si>
-    <t>Adenovirus</t>
-  </si>
-  <si>
-    <t>Aeromonas</t>
-  </si>
-  <si>
-    <t>Ancylostoma</t>
-  </si>
-  <si>
-    <t>TAC</t>
-  </si>
-  <si>
-    <t>Campylobacter</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>Norovirus</t>
-  </si>
-  <si>
-    <t>Chikungunya</t>
-  </si>
-  <si>
-    <t>SD Bioline IgM ELISA</t>
-  </si>
-  <si>
-    <t>Escherichia coli</t>
-  </si>
-  <si>
-    <t>Escherichia</t>
   </si>
   <si>
     <t>if ETEC, STEC, etc. enter it here</t>
@@ -171,12 +122,6 @@
     <t>stx1</t>
   </si>
   <si>
-    <t>RT-PCR</t>
-  </si>
-  <si>
-    <t>Norovirus GII</t>
-  </si>
-  <si>
     <t>E.g.: bacteriology, TAC, ELISA</t>
   </si>
   <si>
@@ -240,25 +185,10 @@
     <t>sum or mean</t>
   </si>
   <si>
-    <t xml:space="preserve">sum  </t>
-  </si>
-  <si>
     <t>value specification</t>
   </si>
   <si>
     <t>e.g. stools, 1st monthly stools,  bacteria species count in stool samples</t>
-  </si>
-  <si>
-    <t>1st diarrheal stools</t>
-  </si>
-  <si>
-    <t>1st monthly stools</t>
-  </si>
-  <si>
-    <t>stools</t>
-  </si>
-  <si>
-    <t>species count in stool samples</t>
   </si>
 </sst>
 </file>
@@ -1115,10 +1045,10 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1150,10 +1080,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1165,16 +1095,16 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>8</v>
@@ -1186,19 +1116,19 @@
         <v>9</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -1207,31 +1137,16 @@
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="N3" s="2" t="str">
         <f>TRIM("Cumulative sum "&amp;IF($H3="",IF($G3="",LOWER($E3),$G3),"")
 &amp;IF(OR($I3="LT",$I3="ST"),$H3&amp;" ","")
@@ -1242,413 +1157,117 @@
 &amp;IF($L3&lt;&gt;""," "&amp;$L3&amp;"-neg","")
 &amp;IF($D3&lt;&gt;""," "&amp;$D3,"")
 &amp;IF($B3&lt;&gt;"",", by "&amp;$B3,""))</f>
-        <v>Cumulative sum Vibrio cholerae-pos 1st diarrheal stools</v>
+        <v>Cumulative sum -pos</v>
       </c>
       <c r="O3" s="2" t="str">
         <f>TRIM(IF($I3="",IF($H3="",$G3,VLOOKUP($H3,$R$3:$S$1000,2,FALSE)),VLOOKUP($I3,$R$3:$S$1000,2,FALSE))&amp;" aggregate data")</f>
-        <v>Vibrio cholerae aggregate data</v>
+        <v>aggregate data</v>
       </c>
       <c r="P3" s="2" t="str">
         <f>TRIM($E3&amp;" detection aggregate data")</f>
-        <v>Bacteria detection aggregate data</v>
+        <v>detection aggregate data</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="R4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="2" t="str">
-        <f t="shared" ref="N4:N13" si="0">TRIM("Cumulative sum "&amp;IF($H4="",IF($G4="",LOWER($E4),$G4),"")
-&amp;IF(OR($I4="LT",$I4="ST"),$H4&amp;" ","")
-&amp;IF($I4&lt;&gt;"",$I4,$H4)
-&amp;"-pos"
-&amp;IF($K4&lt;&gt;""," "&amp;$K4,"")
-&amp;IF($J4&lt;&gt;""," "&amp;$J4&amp;"-pos","")
-&amp;IF($L4&lt;&gt;""," "&amp;$L4&amp;"-neg","")
-&amp;IF($D4&lt;&gt;""," "&amp;$D4,"")
-&amp;IF($B4&lt;&gt;"",", by "&amp;$B4,""))</f>
-        <v>Cumulative sum Adenovirus-pos 1st monthly stools, by ELISA</v>
-      </c>
-      <c r="O4" s="2" t="str">
-        <f t="shared" ref="O4:O13" si="1">TRIM(IF($I4="",IF($H4="",$G4,VLOOKUP($H4,$R$3:$S$1000,2,FALSE)),VLOOKUP($I4,$R$3:$S$1000,2,FALSE))&amp;" aggregate data")</f>
-        <v>Adenovirus aggregate data</v>
-      </c>
-      <c r="P4" s="2" t="str">
-        <f t="shared" ref="P4:P13" si="2">TRIM($E4&amp;" detection aggregate data")</f>
-        <v>Virus detection aggregate data</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="S5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="S6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Cumulative sum Aeromonas-pos stools, by TAC</v>
-      </c>
-      <c r="O5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Aeromonas aggregate data</v>
-      </c>
-      <c r="P5" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Bacteria detection aggregate data</v>
-      </c>
-      <c r="R5" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="10" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Cumulative sum Ancylostoma-pos stools, by TAC</v>
-      </c>
-      <c r="O6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Ancylostoma aggregate data</v>
-      </c>
-      <c r="P6" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Eukaryota detection aggregate data</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Cumulative sum Campylobacter-pos stools, by ELISA</v>
-      </c>
-      <c r="O7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Campylobacter aggregate data</v>
-      </c>
-      <c r="P7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Bacteria detection aggregate data</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="S10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Cumulative sum Norovirus GII-pos stools, by RT-PCR</v>
-      </c>
-      <c r="O8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Norovirus GII aggregate data</v>
-      </c>
-      <c r="P8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Virus detection aggregate data</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Cumulative sum Chikungunya-pos stools, by SD Bioline IgM ELISA</v>
-      </c>
-      <c r="O9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Chikungunya aggregate data</v>
-      </c>
-      <c r="P9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Virus detection aggregate data</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Cumulative sum ETEC ST-pos LT-neg stools</v>
-      </c>
-      <c r="O10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Heat stable (ST) enterotoxin aggregate data</v>
-      </c>
-      <c r="P10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Bacteria detection aggregate data</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Cumulative sum STEC-pos stools</v>
-      </c>
-      <c r="O11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Shigatoxin producing Escherichia coli (STEC) aggregate data</v>
-      </c>
-      <c r="P11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Bacteria detection aggregate data</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Cumulative sum aaiC-pos</v>
-      </c>
-      <c r="O12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Virulence factor genes aatA and aaiC aggregate data</v>
-      </c>
-      <c r="P12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Bacteria detection aggregate data</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Cumulative sum bacteria-pos species count in stool samples</v>
-      </c>
-      <c r="O13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>aggregate data</v>
-      </c>
-      <c r="P13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Bacteria detection aggregate data</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R14" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R15" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
